--- a/IntlExp/MergedExcel.xlsx
+++ b/IntlExp/MergedExcel.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.b.ossi\Python\IntlExp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECBB966-F22B-465B-95F4-07C8458F1C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -727,14 +744,14 @@
     <t>LEVEL_4</t>
   </si>
   <si>
-    <t>NO_INFORMATION</t>
+    <t>LEVEL_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +814,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -843,7 +868,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,9 +900,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,6 +952,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1084,14 +1145,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1134,7 +1203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1157,7 +1226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1180,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1203,7 +1272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1226,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1243,7 +1312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1266,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1289,7 +1358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1312,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1335,7 +1404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1358,7 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1381,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1404,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1427,7 +1496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1450,7 +1519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1473,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1496,7 +1565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1519,7 +1588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1542,7 +1611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1565,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1588,7 +1657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1611,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1628,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1651,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1674,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1697,7 +1766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1720,7 +1789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1743,7 +1812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1766,7 +1835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1783,7 +1852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1806,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1829,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1852,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1875,7 +1944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1898,7 +1967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1921,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1944,7 +2013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1967,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1984,7 +2053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2007,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2024,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2047,7 +2116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2070,7 +2139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2093,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2116,7 +2185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2139,7 +2208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2162,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2185,7 +2254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2208,7 +2277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2231,7 +2300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2254,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2277,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2300,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2323,7 +2392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2346,7 +2415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2369,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2392,7 +2461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2415,7 +2484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2438,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2461,7 +2530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2484,7 +2553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2507,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2530,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2553,7 +2622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2576,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2599,7 +2668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2616,7 +2685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2639,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2662,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2685,7 +2754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2708,7 +2777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2731,7 +2800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2754,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2771,7 +2840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2794,7 +2863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2817,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2840,7 +2909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2863,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2880,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2903,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2926,7 +2995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2949,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2972,7 +3041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2995,7 +3064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3018,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3041,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3064,7 +3133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3087,7 +3156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3110,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3133,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3156,7 +3225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3179,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3202,7 +3271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3219,7 +3288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3242,7 +3311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3259,7 +3328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3282,7 +3351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3305,7 +3374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3328,7 +3397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3351,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3374,7 +3443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3397,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3420,7 +3489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3437,7 +3506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3460,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3483,7 +3552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3506,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3529,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3552,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3575,7 +3644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3598,7 +3667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3615,7 +3684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3638,7 +3707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3661,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3684,7 +3753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3707,7 +3776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3730,7 +3799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3747,7 +3816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3764,7 +3833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3781,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3804,7 +3873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3827,7 +3896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3850,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3873,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3896,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3919,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3942,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3965,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3988,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4011,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4034,7 +4103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4057,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4080,7 +4149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4097,7 +4166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4120,7 +4189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4143,7 +4212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4166,7 +4235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4189,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4212,7 +4281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4235,7 +4304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4258,7 +4327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4281,7 +4350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4298,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4321,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4344,7 +4413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4367,7 +4436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4390,7 +4459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4413,7 +4482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4436,7 +4505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4459,7 +4528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4482,7 +4551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4505,7 +4574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4528,7 +4597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4551,7 +4620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4574,7 +4643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4597,7 +4666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4620,7 +4689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4643,7 +4712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4666,7 +4735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4689,7 +4758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4712,7 +4781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4729,7 +4798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4752,7 +4821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4775,7 +4844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4798,7 +4867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4821,7 +4890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4844,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4861,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4884,7 +4953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4907,7 +4976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4924,7 +4993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4947,7 +5016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4970,7 +5039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4987,7 +5056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5010,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5033,7 +5102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5056,7 +5125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5079,7 +5148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5102,7 +5171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5125,7 +5194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5148,7 +5217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5165,7 +5234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5182,7 +5251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5205,7 +5274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5228,7 +5297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5251,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5268,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5291,7 +5360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5314,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5331,7 +5400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5354,7 +5423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5377,7 +5446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5400,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5423,7 +5492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5440,7 +5509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5463,7 +5532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5480,7 +5549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5503,7 +5572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -5526,7 +5595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5549,7 +5618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5572,7 +5641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5595,7 +5664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5612,7 +5681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5635,7 +5704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5658,7 +5727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5681,7 +5750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5704,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5727,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5750,7 +5819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5773,7 +5842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5796,7 +5865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5819,7 +5888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5842,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5865,7 +5934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5888,7 +5957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5911,7 +5980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5928,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5945,7 +6014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5968,7 +6037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5991,7 +6060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6008,7 +6077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6031,7 +6100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6054,7 +6123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6077,7 +6146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6100,7 +6169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6123,7 +6192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>226</v>
       </c>

--- a/IntlExp/MergedExcel.xlsx
+++ b/IntlExp/MergedExcel.xlsx
@@ -8,25 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.b.ossi\Python\IntlExp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECBB966-F22B-465B-95F4-07C8458F1C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8422047F-4567-4E80-97CF-2B88FF42ED74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -744,7 +733,7 @@
     <t>LEVEL_4</t>
   </si>
   <si>
-    <t>LEVEL_10</t>
+    <t>NO_INFORMATION</t>
   </si>
 </sst>
 </file>
@@ -1148,13 +1137,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>

--- a/IntlExp/MergedExcel.xlsx
+++ b/IntlExp/MergedExcel.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.b.ossi\Python\IntlExp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8422047F-4567-4E80-97CF-2B88FF42ED74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -739,8 +733,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,14 +797,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -857,7 +843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,27 +875,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,24 +909,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1134,22 +1084,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1192,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1215,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1238,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1261,7 +1203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1284,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1301,7 +1243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1324,7 +1266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1347,7 +1289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1370,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1393,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1416,7 +1358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1439,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1462,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1485,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1508,7 +1450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1531,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1554,7 +1496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1577,7 +1519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1600,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1623,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1646,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1669,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1686,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1709,7 +1651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1732,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1755,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1778,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1801,7 +1743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1824,7 +1766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1841,7 +1783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1864,7 +1806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1887,7 +1829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1910,7 +1852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1933,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1956,7 +1898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1979,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2002,7 +1944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2025,7 +1967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2042,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2065,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2082,7 +2024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2105,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2128,7 +2070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2151,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2174,7 +2116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2197,7 +2139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2220,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2243,7 +2185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2266,7 +2208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2289,7 +2231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2312,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2335,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2358,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2381,7 +2323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2404,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2427,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2450,7 +2392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2473,7 +2415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2496,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2519,7 +2461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2542,7 +2484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2565,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2588,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2611,7 +2553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2634,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2657,7 +2599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2674,7 +2616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2697,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2720,7 +2662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2743,7 +2685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2766,7 +2708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2789,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2812,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2829,7 +2771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2852,7 +2794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2875,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2898,7 +2840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2921,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2938,7 +2880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2961,7 +2903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2984,7 +2926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3007,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3030,7 +2972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3053,7 +2995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3076,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3099,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3122,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3145,7 +3087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3168,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3191,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3214,7 +3156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3237,7 +3179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3260,7 +3202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3277,7 +3219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3300,7 +3242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3317,7 +3259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3340,7 +3282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3363,7 +3305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3386,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3409,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3432,7 +3374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3455,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3478,7 +3420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3495,7 +3437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3518,7 +3460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3541,7 +3483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3564,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3587,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3610,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3633,7 +3575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3656,7 +3598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3673,7 +3615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3696,7 +3638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3719,7 +3661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3742,7 +3684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3765,7 +3707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3788,7 +3730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3805,7 +3747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3822,7 +3764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3839,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3862,7 +3804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3885,7 +3827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3908,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3931,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3954,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3977,7 +3919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4000,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4023,7 +3965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4046,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4069,7 +4011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4092,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4115,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4138,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4155,7 +4097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4178,7 +4120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4201,7 +4143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4224,7 +4166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4247,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4270,7 +4212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4293,7 +4235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4316,7 +4258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4339,7 +4281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4356,7 +4298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4379,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4402,7 +4344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4425,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4448,7 +4390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4471,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4494,7 +4436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4517,7 +4459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4540,7 +4482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4563,7 +4505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4586,7 +4528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4609,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4632,7 +4574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4655,7 +4597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4678,7 +4620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4701,7 +4643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4724,7 +4666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4747,7 +4689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4770,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4787,7 +4729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4810,7 +4752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4833,7 +4775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4856,7 +4798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4879,7 +4821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4902,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4919,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4942,7 +4884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4965,7 +4907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4982,7 +4924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5005,7 +4947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5028,7 +4970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5045,7 +4987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5068,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5091,7 +5033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5114,7 +5056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5137,7 +5079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5160,7 +5102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5183,7 +5125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5206,7 +5148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5223,7 +5165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5240,7 +5182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5263,7 +5205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5286,7 +5228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5309,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5326,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5349,7 +5291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5372,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5389,7 +5331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5412,7 +5354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5435,7 +5377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5458,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5481,7 +5423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5498,7 +5440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5521,7 +5463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5538,7 +5480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5561,7 +5503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -5584,7 +5526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5607,7 +5549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5630,7 +5572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5653,7 +5595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5670,7 +5612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5693,7 +5635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5716,7 +5658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5739,7 +5681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5762,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5785,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5808,7 +5750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5831,7 +5773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5854,7 +5796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5877,7 +5819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5900,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5923,7 +5865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5946,7 +5888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5969,7 +5911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5986,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6003,7 +5945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6026,7 +5968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6049,7 +5991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6066,7 +6008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6089,7 +6031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6112,7 +6054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6135,7 +6077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6158,7 +6100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6181,7 +6123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>226</v>
       </c>
